--- a/planillasUtiles.xlsx
+++ b/planillasUtiles.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dcd86d9bf03d87f/ORT/Semestre4/IS/Obligatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85F5679-ADEE-4286-B38F-77A47D5ED800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E85F5679-ADEE-4286-B38F-77A47D5ED800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED936E2-9FEB-49FC-B5DB-0A01A34151F6}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="15960" activeTab="2" xr2:uid="{B3C2B1A8-5EDB-4660-8274-FA93E357CA7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B3C2B1A8-5EDB-4660-8274-FA93E357CA7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="CU01" sheetId="2" r:id="rId2"/>
     <sheet name="CU02" sheetId="3" r:id="rId3"/>
+    <sheet name="CU03" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +380,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,131 +476,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -843,23 +838,23 @@
       <selection activeCell="N1" sqref="N1:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.9453125" style="1"/>
-    <col min="3" max="3" width="9.15625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.3125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.9453125" style="1"/>
-    <col min="7" max="7" width="10.47265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.9453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.83984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3125" style="1" customWidth="1"/>
-    <col min="11" max="17" width="10.9453125" style="1"/>
-    <col min="18" max="18" width="13.734375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.9453125" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="17" width="11" style="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -918,7 +913,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -956,7 +951,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1007,194 +1002,164 @@
       <selection activeCell="A2" sqref="A2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.9453125" style="5"/>
+    <col min="1" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:8" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="20" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="23" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="20" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="23" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="26" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="30" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="33" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="35" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1204,83 +1169,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922556D5-855D-42A3-89BB-52B2DC5D1B4F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.9453125" style="5"/>
+    <col min="1" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:8" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="20" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="23" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="40"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
       <c r="E7" s="41" t="s">
         <v>27</v>
       </c>
@@ -1288,11 +1250,8 @@
       <c r="G7" s="42"/>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="40"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
       <c r="E8" s="41" t="s">
         <v>28</v>
       </c>
@@ -1300,128 +1259,283 @@
       <c r="G8" s="42"/>
       <c r="H8" s="43"/>
     </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="40"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="44" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="E11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:8" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="35" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C9AEE-9B2B-42E5-AC9A-6B166A2CBB0A}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="E7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="E8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="E11" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planillasUtiles.xlsx
+++ b/planillasUtiles.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dcd86d9bf03d87f/ORT/Semestre4/IS/Obligatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E85F5679-ADEE-4286-B38F-77A47D5ED800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED936E2-9FEB-49FC-B5DB-0A01A34151F6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{E85F5679-ADEE-4286-B38F-77A47D5ED800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DBE5CA-BAD5-456D-9C75-378B5BC652E2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B3C2B1A8-5EDB-4660-8274-FA93E357CA7C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{B3C2B1A8-5EDB-4660-8274-FA93E357CA7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="CU01" sheetId="2" r:id="rId2"/>
     <sheet name="CU02" sheetId="3" r:id="rId3"/>
     <sheet name="CU03" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -138,13 +139,46 @@
   </si>
   <si>
     <t>8- Confirma selección.</t>
+  </si>
+  <si>
+    <t>DISPONIBILIDAD (%)</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES</t>
+  </si>
+  <si>
+    <t>HORAS DEDICADAS</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t>Nombre de un Dev</t>
+  </si>
+  <si>
+    <t>Actividad 1</t>
+  </si>
+  <si>
+    <t>Actividad 2</t>
+  </si>
+  <si>
+    <t>Nombre de otro Dev</t>
+  </si>
+  <si>
+    <t>Actividad 3</t>
+  </si>
+  <si>
+    <t>Actividad 4</t>
+  </si>
+  <si>
+    <t>Actividad 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,16 +202,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -359,11 +412,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,6 +524,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -464,27 +590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -494,6 +599,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -506,18 +623,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,26 +1159,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1039,20 +1189,20 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1063,32 +1213,32 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1099,24 +1249,24 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
@@ -1150,16 +1300,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1180,26 +1330,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1210,32 +1360,32 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="14"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="18"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1260,24 +1410,24 @@
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="18"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1285,24 +1435,24 @@
     </row>
     <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
@@ -1336,6 +1486,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A2:D2"/>
@@ -1343,11 +1498,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C9AEE-9B2B-42E5-AC9A-6B166A2CBB0A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1368,26 +1518,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1398,32 +1548,32 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="14"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="18"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1448,24 +1598,24 @@
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="18"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1473,24 +1623,24 @@
     </row>
     <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
@@ -1524,11 +1674,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -1536,7 +1681,107 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFAC89E-B460-46A6-9D09-814EEB58C70C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="57">
+        <v>100</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="59">
+        <v>5</v>
+      </c>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="64">
+        <v>8</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="57">
+        <v>50</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="66">
+        <v>2</v>
+      </c>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="59">
+        <v>3</v>
+      </c>
+      <c r="E5" s="70"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/planillasUtiles.xlsx
+++ b/planillasUtiles.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dcd86d9bf03d87f/ORT/Semestre4/IS/Obligatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E85F5679-ADEE-4286-B38F-77A47D5ED800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DBE5CA-BAD5-456D-9C75-378B5BC652E2}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{E85F5679-ADEE-4286-B38F-77A47D5ED800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660DC8AE-FE03-4B4E-B010-EA2B3082419A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{B3C2B1A8-5EDB-4660-8274-FA93E357CA7C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{B3C2B1A8-5EDB-4660-8274-FA93E357CA7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="CU01" sheetId="2" r:id="rId2"/>
-    <sheet name="CU02" sheetId="3" r:id="rId3"/>
-    <sheet name="CU03" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId2"/>
+    <sheet name="CU01" sheetId="2" r:id="rId3"/>
+    <sheet name="CU02" sheetId="3" r:id="rId4"/>
+    <sheet name="CU03" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -172,6 +173,54 @@
   </si>
   <si>
     <t>Actividad 5</t>
+  </si>
+  <si>
+    <t>1- Solicita la generación de reporte.</t>
+  </si>
+  <si>
+    <t>2- Muestra pantalla de selección de obra, rango de fechas y tipo de reporte.</t>
+  </si>
+  <si>
+    <t>5- Busca en la base de datos los datos solicitados y genera un archivo de tipos Excel.</t>
+  </si>
+  <si>
+    <t>6- Luego de generado el reporte envía los resultados al mail establecido en el perfil del usuario.</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Obra</t>
+  </si>
+  <si>
+    <t>Hs</t>
+  </si>
+  <si>
+    <t>H-LL</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>H-Ex</t>
+  </si>
+  <si>
+    <t>Hs Totales</t>
+  </si>
+  <si>
+    <t>H-LL Totales</t>
+  </si>
+  <si>
+    <t>H-Ex Totales</t>
   </si>
 </sst>
 </file>
@@ -216,7 +265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +278,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -464,11 +525,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,9 +755,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +797,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,51 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -599,6 +917,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,63 +941,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,29 +1345,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89DABCD-EE0F-4F90-87A7-9F55FA03950E}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:T3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.26171875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.41796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="17" width="11" style="1"/>
-    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="1"/>
+    <col min="9" max="9" width="4.83984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26171875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="11" style="1"/>
+    <col min="14" max="15" width="15.41796875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="11" style="1"/>
+    <col min="19" max="19" width="13.68359375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,31 +1404,34 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1088,20 +1456,16 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="4">
-        <v>45231</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>45260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1126,18 +1490,44 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="4">
-        <v>45231</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>45260</v>
-      </c>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,6 +1535,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDE9FD9-831B-40FB-9CE5-050D6D9430C2}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="10.9453125" style="1"/>
+    <col min="3" max="3" width="12.26171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.9453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.05078125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26171875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.41796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.9453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1015625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26171875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.41796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.9453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.26171875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.9453125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="76">
+        <v>45201</v>
+      </c>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="76">
+        <v>45202</v>
+      </c>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="76">
+        <v>45203</v>
+      </c>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="90"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="91"/>
+    </row>
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="91"/>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="91"/>
+    </row>
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="91"/>
+    </row>
+    <row r="7" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
+    </row>
+    <row r="8" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1751CFDC-DEA3-499C-A8C3-85A64EF403E3}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -1152,170 +1759,170 @@
       <selection activeCell="A2" sqref="A2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="11" style="5"/>
+    <col min="1" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:8" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="26" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="26" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="29" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="35" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="38" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922556D5-855D-42A3-89BB-52B2DC5D1B4F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -1323,174 +1930,169 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="11" style="5"/>
+    <col min="1" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:8" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="26" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="E7" s="41" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15"/>
+      <c r="E7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="E8" s="41" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="15"/>
+      <c r="E8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="E11" s="49" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15"/>
+      <c r="E11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="38" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="9"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A10:D10"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A2:D2"/>
@@ -1498,183 +2100,157 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C9AEE-9B2B-42E5-AC9A-6B166A2CBB0A}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="11" style="5"/>
+    <col min="1" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:8" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="E7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="E8" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="E11" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:8" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="9"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E12:H12"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:D3"/>
@@ -1684,102 +2260,100 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFAC89E-B460-46A6-9D09-814EEB58C70C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:5" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="23">
         <v>100</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="25">
         <v>5</v>
       </c>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="30">
         <v>8</v>
       </c>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="23">
         <v>50</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="32">
         <v>2</v>
       </c>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="25">
         <v>3</v>
       </c>
-      <c r="E5" s="70"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63" t="s">
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
